--- a/e2e-automation/src/test/resources/MissingDataProfiles_ToFix.xlsx
+++ b/e2e-automation/src/test/resources/MissingDataProfiles_ToFix.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11689" uniqueCount="3542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11889" uniqueCount="3748">
   <si>
     <t xml:space="preserve">Job Catalog Data Import Template   </t>
   </si>
@@ -10782,10 +10782,628 @@
     <t>JOU100-20260122170646</t>
   </si>
   <si>
+    <t>Software Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>SE01-20260123140206</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260123140206</t>
+  </si>
+  <si>
+    <t>DA02-20260123140206</t>
+  </si>
+  <si>
+    <t>Product Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>PM03-20260123140206</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>SM04-20260123140206</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>MS05-20260123140206</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>HR06-20260123140206</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260123140206</t>
+  </si>
+  <si>
+    <t>FA07-20260123140206</t>
+  </si>
+  <si>
+    <t>Accountant 20260123140206</t>
+  </si>
+  <si>
+    <t>AC08-20260123140206</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260123140206</t>
+  </si>
+  <si>
+    <t>CS09-20260123140206</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>OM10-20260123140206</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>QA11-20260123140206</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>DO12-20260123140206</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260123140206</t>
+  </si>
+  <si>
+    <t>BA13-20260123140206</t>
+  </si>
+  <si>
+    <t>Project Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>PJM14-20260123140206</t>
+  </si>
+  <si>
+    <t>UX Designer 20260123140206</t>
+  </si>
+  <si>
+    <t>UX15-20260123140206</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260123140206</t>
+  </si>
+  <si>
+    <t>GD16-20260123140206</t>
+  </si>
+  <si>
+    <t>Content Writer 20260123140206</t>
+  </si>
+  <si>
+    <t>CW17-20260123140206</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260123140206</t>
+  </si>
+  <si>
+    <t>NA18-20260123140206</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260123140206</t>
+  </si>
+  <si>
+    <t>DBA19-20260123140206</t>
+  </si>
+  <si>
+    <t>System Administrator 20260123140206</t>
+  </si>
+  <si>
+    <t>SA20-20260123140206</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260123140206</t>
+  </si>
+  <si>
+    <t>CA21-20260123140206</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260123140206</t>
+  </si>
+  <si>
+    <t>LC22-20260123140206</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260123140206</t>
+  </si>
+  <si>
+    <t>CO23-20260123140206</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>SCM24-20260123140206</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260123140206</t>
+  </si>
+  <si>
+    <t>LOG25-20260123140206</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>PS26-20260123140206</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260123140206</t>
+  </si>
+  <si>
+    <t>TC27-20260123140206</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>RS28-20260123140206</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260123140206</t>
+  </si>
+  <si>
+    <t>PA29-20260123140206</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260123140206</t>
+  </si>
+  <si>
+    <t>EA30-20260123140206</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260123140206</t>
+  </si>
+  <si>
+    <t>AA31-20260123140206</t>
+  </si>
+  <si>
+    <t>Receptionist 20260123140206</t>
+  </si>
+  <si>
+    <t>REC32-20260123140206</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260123140206</t>
+  </si>
+  <si>
+    <t>SEX33-20260123140206</t>
+  </si>
+  <si>
+    <t>Account Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>AM34-20260123140206</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>BDM35-20260123140206</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>CSM36-20260123140206</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>TS37-20260123140206</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260123140206</t>
+  </si>
+  <si>
+    <t>HD38-20260123140206</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>MM39-20260123140206</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>BM40-20260123140206</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>SMM41-20260123140206</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>SEO42-20260123140206</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>PR43-20260123140206</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>COM44-20260123140206</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260123140206</t>
+  </si>
+  <si>
+    <t>RES45-20260123140206</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260123140206</t>
+  </si>
+  <si>
+    <t>LAB46-20260123140206</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260123140206</t>
+  </si>
+  <si>
+    <t>CRC47-20260123140206</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260123140206</t>
+  </si>
+  <si>
+    <t>PH48-20260123140206</t>
+  </si>
+  <si>
+    <t>Nurse 20260123140206</t>
+  </si>
+  <si>
+    <t>NUR49-20260123140206</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260123140206</t>
+  </si>
+  <si>
+    <t>MA50-20260123140206</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260123140206</t>
+  </si>
+  <si>
+    <t>PT51-20260123140206</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260123140206</t>
+  </si>
+  <si>
+    <t>OT52-20260123140206</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260123140206</t>
+  </si>
+  <si>
+    <t>RT53-20260123140206</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>CM54-20260123140206</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>CE55-20260123140206</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>ME56-20260123140206</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>EE57-20260123140206</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260123140206</t>
+  </si>
+  <si>
+    <t>MFE58-20260123140206</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260123140206</t>
+  </si>
+  <si>
+    <t>PRS59-20260123140206</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>WM60-20260123140206</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>INV61-20260123140206</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260123140206</t>
+  </si>
+  <si>
+    <t>MT62-20260123140206</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>FM63-20260123140206</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>EHS64-20260123140206</t>
+  </si>
+  <si>
+    <t>Security Officer 20260123140206</t>
+  </si>
+  <si>
+    <t>SO65-20260123140206</t>
+  </si>
+  <si>
+    <t>Teacher 20260123140206</t>
+  </si>
+  <si>
+    <t>TEA66-20260123140206</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>TRS67-20260123140206</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260123140206</t>
+  </si>
+  <si>
+    <t>ID68-20260123140206</t>
+  </si>
+  <si>
+    <t>Librarian 20260123140206</t>
+  </si>
+  <si>
+    <t>LIB69-20260123140206</t>
+  </si>
+  <si>
+    <t>Architect 20260123140206</t>
+  </si>
+  <si>
+    <t>ARC70-20260123140206</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260123140206</t>
+  </si>
+  <si>
+    <t>IDE71-20260123140206</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260123140206</t>
+  </si>
+  <si>
+    <t>REA72-20260123140206</t>
+  </si>
+  <si>
+    <t>Property Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>PRM73-20260123140206</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260123140206</t>
+  </si>
+  <si>
+    <t>FIA74-20260123140206</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260123140206</t>
+  </si>
+  <si>
+    <t>IA75-20260123140206</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260123140206</t>
+  </si>
+  <si>
+    <t>CRA76-20260123140206</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>RM77-20260123140206</t>
+  </si>
+  <si>
+    <t>Auditor 20260123140206</t>
+  </si>
+  <si>
+    <t>AUD78-20260123140206</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260123140206</t>
+  </si>
+  <si>
+    <t>TAX79-20260123140206</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260123140206</t>
+  </si>
+  <si>
+    <t>BUA80-20260123140206</t>
+  </si>
+  <si>
+    <t>Paralegal 20260123140206</t>
+  </si>
+  <si>
+    <t>PAR81-20260123140206</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>CTM82-20260123140206</t>
+  </si>
+  <si>
+    <t>Chef 20260123140206</t>
+  </si>
+  <si>
+    <t>CHF83-20260123140206</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>REM84-20260123140206</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260123140206</t>
+  </si>
+  <si>
+    <t>EVC85-20260123140206</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260123140206</t>
+  </si>
+  <si>
+    <t>TRC86-20260123140206</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>HM87-20260123140206</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260123140206</t>
+  </si>
+  <si>
+    <t>FA88-20260123140206</t>
+  </si>
+  <si>
+    <t>Pilot 20260123140206</t>
+  </si>
+  <si>
+    <t>PIL89-20260123140206</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260123140206</t>
+  </si>
+  <si>
+    <t>TD90-20260123140206</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260123140206</t>
+  </si>
+  <si>
+    <t>DD91-20260123140206</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>RSM92-20260123140206</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260123140206</t>
+  </si>
+  <si>
+    <t>SAL93-20260123140206</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260123140206</t>
+  </si>
+  <si>
+    <t>VM94-20260123140206</t>
+  </si>
+  <si>
+    <t>Buyer 20260123140206</t>
+  </si>
+  <si>
+    <t>BUY95-20260123140206</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>ECM96-20260123140206</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260123140206</t>
+  </si>
+  <si>
+    <t>DMM97-20260123140206</t>
+  </si>
+  <si>
+    <t>Videographer 20260123140206</t>
+  </si>
+  <si>
+    <t>VID98-20260123140206</t>
+  </si>
+  <si>
+    <t>Photographer 20260123140206</t>
+  </si>
+  <si>
+    <t>PHO99-20260123140206</t>
+  </si>
+  <si>
+    <t>Journalist 20260123140206</t>
+  </si>
+  <si>
+    <t>JOU100-20260123140206</t>
+  </si>
+  <si>
+    <t>Network Engineer09</t>
+  </si>
+  <si>
+    <t>JC009</t>
+  </si>
+  <si>
+    <t>JGL01</t>
+  </si>
+  <si>
     <t>FALSE</t>
   </si>
   <si>
-    <t>JGL01</t>
+    <t>Network Engineer11</t>
+  </si>
+  <si>
+    <t>JC0011</t>
+  </si>
+  <si>
+    <t>Associate User05</t>
+  </si>
+  <si>
+    <t>JC0020</t>
   </si>
 </sst>
 </file>
@@ -11557,7 +12175,7 @@
   <cols>
     <col min="16" max="16" customWidth="true" style="1" width="38.2890625" bestFit="true"/>
     <col min="1" max="1" customWidth="true" style="1" width="199.66015625" bestFit="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.55078125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.37109375"/>
     <col min="3" max="3" customWidth="true" style="1" width="32.84375" bestFit="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="33.09765625" bestFit="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="25.77734375" bestFit="true"/>
@@ -12043,102 +12661,102 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>3472</v>
+        <v>3740</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>3473</v>
+        <v>3741</v>
       </c>
       <c r="C7" t="s" s="1">
         <v>33</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>2604</v>
+        <v>2402</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>2928</v>
+        <v>3742</v>
       </c>
       <c r="K7" t="s" s="1">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="M7" t="s" s="1">
-        <v>3540</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>3356</v>
+        <v>3252</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>3357</v>
+        <v>3253</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>2398</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>3541</v>
+        <v>2930</v>
       </c>
       <c r="K8" t="s" s="1">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s" s="1">
-        <v>3540</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>3454</v>
+        <v>3728</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>3455</v>
+        <v>3729</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>142</v>
+        <v>2465</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>3541</v>
+        <v>3742</v>
       </c>
       <c r="K9" t="s" s="1">
         <v>134</v>
       </c>
       <c r="M9" t="s" s="1">
-        <v>3540</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>3422</v>
+        <v>3146</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>3423</v>
+        <v>3147</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>2402</v>
+        <v>2384</v>
       </c>
       <c r="E10" t="s" s="1">
-        <v>2929</v>
+        <v>2931</v>
       </c>
       <c r="K10" t="s" s="1">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="1">
-        <v>3540</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>3488</v>
+        <v>3234</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>3489</v>
+        <v>3235</v>
       </c>
       <c r="C11" t="s" s="1">
         <v>33</v>
@@ -12147,128 +12765,128 @@
         <v>2402</v>
       </c>
       <c r="E11" t="s" s="1">
-        <v>3541</v>
+        <v>3742</v>
       </c>
       <c r="K11" t="s" s="1">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="M11" t="s" s="1">
-        <v>3540</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>3506</v>
+        <v>3744</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>3507</v>
+        <v>3745</v>
       </c>
       <c r="C12" t="s" s="1">
         <v>33</v>
       </c>
       <c r="D12" t="s" s="1">
-        <v>2666</v>
+        <v>2402</v>
       </c>
       <c r="E12" t="s" s="1">
-        <v>2935</v>
+        <v>3742</v>
       </c>
       <c r="K12" t="s" s="1">
-        <v>2753</v>
+        <v>134</v>
       </c>
       <c r="M12" t="s" s="1">
-        <v>3540</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
-        <v>3434</v>
+        <v>3644</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>3435</v>
+        <v>3645</v>
       </c>
       <c r="C13" t="s" s="1">
         <v>33</v>
       </c>
       <c r="D13" t="s" s="1">
-        <v>2402</v>
+        <v>2551</v>
       </c>
       <c r="E13" t="s" s="1">
-        <v>3541</v>
+        <v>2928</v>
       </c>
       <c r="K13" t="s" s="1">
-        <v>134</v>
+        <v>2551</v>
       </c>
       <c r="M13" t="s" s="1">
-        <v>3540</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
-        <v>3360</v>
+        <v>3170</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>3361</v>
+        <v>3171</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>134</v>
+        <v>2421</v>
       </c>
       <c r="D14" t="s" s="1">
-        <v>2402</v>
+        <v>2426</v>
       </c>
       <c r="E14" t="s" s="1">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="K14" t="s" s="1">
         <v>134</v>
       </c>
       <c r="M14" t="s" s="1">
-        <v>3540</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
-        <v>3464</v>
+        <v>3746</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>3465</v>
+        <v>3747</v>
       </c>
       <c r="C15" t="s" s="1">
-        <v>2586</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s" s="1">
-        <v>215</v>
+        <v>2402</v>
       </c>
       <c r="E15" t="s" s="1">
-        <v>3541</v>
+        <v>3742</v>
       </c>
       <c r="K15" t="s" s="1">
-        <v>2586</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s" s="1">
-        <v>3540</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
-        <v>3410</v>
+        <v>3622</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>3411</v>
+        <v>3623</v>
       </c>
       <c r="C16" t="s" s="1">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s" s="1">
         <v>2402</v>
       </c>
       <c r="E16" t="s" s="1">
-        <v>2935</v>
+        <v>2929</v>
       </c>
       <c r="K16" t="s" s="1">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="1">
-        <v>3540</v>
+        <v>3743</v>
       </c>
     </row>
   </sheetData>

--- a/e2e-automation/src/test/resources/MissingDataProfiles_ToFix.xlsx
+++ b/e2e-automation/src/test/resources/MissingDataProfiles_ToFix.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11889" uniqueCount="3748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12689" uniqueCount="4542">
   <si>
     <t xml:space="preserve">Job Catalog Data Import Template   </t>
   </si>
@@ -11382,28 +11382,2410 @@
     <t>JOU100-20260123140206</t>
   </si>
   <si>
-    <t>Network Engineer09</t>
-  </si>
-  <si>
-    <t>JC009</t>
+    <t>Software Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>SE01-20260123161439</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260123161439</t>
+  </si>
+  <si>
+    <t>DA02-20260123161439</t>
+  </si>
+  <si>
+    <t>Product Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>PM03-20260123161439</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>SM04-20260123161439</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>MS05-20260123161439</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>HR06-20260123161439</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260123161439</t>
+  </si>
+  <si>
+    <t>FA07-20260123161439</t>
+  </si>
+  <si>
+    <t>Accountant 20260123161439</t>
+  </si>
+  <si>
+    <t>AC08-20260123161439</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260123161439</t>
+  </si>
+  <si>
+    <t>CS09-20260123161439</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>OM10-20260123161439</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>QA11-20260123161439</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>DO12-20260123161439</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260123161439</t>
+  </si>
+  <si>
+    <t>BA13-20260123161439</t>
+  </si>
+  <si>
+    <t>Project Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>PJM14-20260123161439</t>
+  </si>
+  <si>
+    <t>UX Designer 20260123161439</t>
+  </si>
+  <si>
+    <t>UX15-20260123161439</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260123161439</t>
+  </si>
+  <si>
+    <t>GD16-20260123161439</t>
+  </si>
+  <si>
+    <t>Content Writer 20260123161439</t>
+  </si>
+  <si>
+    <t>CW17-20260123161439</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260123161439</t>
+  </si>
+  <si>
+    <t>NA18-20260123161439</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260123161439</t>
+  </si>
+  <si>
+    <t>DBA19-20260123161439</t>
+  </si>
+  <si>
+    <t>System Administrator 20260123161439</t>
+  </si>
+  <si>
+    <t>SA20-20260123161439</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260123161439</t>
+  </si>
+  <si>
+    <t>CA21-20260123161439</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260123161439</t>
+  </si>
+  <si>
+    <t>LC22-20260123161439</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260123161439</t>
+  </si>
+  <si>
+    <t>CO23-20260123161439</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>SCM24-20260123161439</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260123161439</t>
+  </si>
+  <si>
+    <t>LOG25-20260123161439</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>PS26-20260123161439</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260123161439</t>
+  </si>
+  <si>
+    <t>TC27-20260123161439</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>RS28-20260123161439</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260123161439</t>
+  </si>
+  <si>
+    <t>PA29-20260123161439</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260123161439</t>
+  </si>
+  <si>
+    <t>EA30-20260123161439</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260123161439</t>
+  </si>
+  <si>
+    <t>AA31-20260123161439</t>
+  </si>
+  <si>
+    <t>Receptionist 20260123161439</t>
+  </si>
+  <si>
+    <t>REC32-20260123161439</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260123161439</t>
+  </si>
+  <si>
+    <t>SEX33-20260123161439</t>
+  </si>
+  <si>
+    <t>Account Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>AM34-20260123161439</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>BDM35-20260123161439</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>CSM36-20260123161439</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>TS37-20260123161439</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260123161439</t>
+  </si>
+  <si>
+    <t>HD38-20260123161439</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>MM39-20260123161439</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>BM40-20260123161439</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>SMM41-20260123161439</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>SEO42-20260123161439</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>PR43-20260123161439</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>COM44-20260123161439</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260123161439</t>
+  </si>
+  <si>
+    <t>RES45-20260123161439</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260123161439</t>
+  </si>
+  <si>
+    <t>LAB46-20260123161439</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260123161439</t>
+  </si>
+  <si>
+    <t>CRC47-20260123161439</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260123161439</t>
+  </si>
+  <si>
+    <t>PH48-20260123161439</t>
+  </si>
+  <si>
+    <t>Nurse 20260123161439</t>
+  </si>
+  <si>
+    <t>NUR49-20260123161439</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260123161439</t>
+  </si>
+  <si>
+    <t>MA50-20260123161439</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260123161439</t>
+  </si>
+  <si>
+    <t>PT51-20260123161439</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260123161439</t>
+  </si>
+  <si>
+    <t>OT52-20260123161439</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260123161439</t>
+  </si>
+  <si>
+    <t>RT53-20260123161439</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>CM54-20260123161439</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>CE55-20260123161439</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>ME56-20260123161439</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>EE57-20260123161439</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260123161439</t>
+  </si>
+  <si>
+    <t>MFE58-20260123161439</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260123161439</t>
+  </si>
+  <si>
+    <t>PRS59-20260123161439</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>WM60-20260123161439</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>INV61-20260123161439</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260123161439</t>
+  </si>
+  <si>
+    <t>MT62-20260123161439</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>FM63-20260123161439</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>EHS64-20260123161439</t>
+  </si>
+  <si>
+    <t>Security Officer 20260123161439</t>
+  </si>
+  <si>
+    <t>SO65-20260123161439</t>
+  </si>
+  <si>
+    <t>Teacher 20260123161439</t>
+  </si>
+  <si>
+    <t>TEA66-20260123161439</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>TRS67-20260123161439</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260123161439</t>
+  </si>
+  <si>
+    <t>ID68-20260123161439</t>
+  </si>
+  <si>
+    <t>Librarian 20260123161439</t>
+  </si>
+  <si>
+    <t>LIB69-20260123161439</t>
+  </si>
+  <si>
+    <t>Architect 20260123161439</t>
+  </si>
+  <si>
+    <t>ARC70-20260123161439</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260123161439</t>
+  </si>
+  <si>
+    <t>IDE71-20260123161439</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260123161439</t>
+  </si>
+  <si>
+    <t>REA72-20260123161439</t>
+  </si>
+  <si>
+    <t>Property Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>PRM73-20260123161439</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260123161439</t>
+  </si>
+  <si>
+    <t>FIA74-20260123161439</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260123161439</t>
+  </si>
+  <si>
+    <t>IA75-20260123161439</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260123161439</t>
+  </si>
+  <si>
+    <t>CRA76-20260123161439</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>RM77-20260123161439</t>
+  </si>
+  <si>
+    <t>Auditor 20260123161439</t>
+  </si>
+  <si>
+    <t>AUD78-20260123161439</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260123161439</t>
+  </si>
+  <si>
+    <t>TAX79-20260123161439</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260123161439</t>
+  </si>
+  <si>
+    <t>BUA80-20260123161439</t>
+  </si>
+  <si>
+    <t>Paralegal 20260123161439</t>
+  </si>
+  <si>
+    <t>PAR81-20260123161439</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>CTM82-20260123161439</t>
+  </si>
+  <si>
+    <t>Chef 20260123161439</t>
+  </si>
+  <si>
+    <t>CHF83-20260123161439</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>REM84-20260123161439</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260123161439</t>
+  </si>
+  <si>
+    <t>EVC85-20260123161439</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260123161439</t>
+  </si>
+  <si>
+    <t>TRC86-20260123161439</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>HM87-20260123161439</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260123161439</t>
+  </si>
+  <si>
+    <t>FA88-20260123161439</t>
+  </si>
+  <si>
+    <t>Pilot 20260123161439</t>
+  </si>
+  <si>
+    <t>PIL89-20260123161439</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260123161439</t>
+  </si>
+  <si>
+    <t>TD90-20260123161439</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260123161439</t>
+  </si>
+  <si>
+    <t>DD91-20260123161439</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>RSM92-20260123161439</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260123161439</t>
+  </si>
+  <si>
+    <t>SAL93-20260123161439</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260123161439</t>
+  </si>
+  <si>
+    <t>VM94-20260123161439</t>
+  </si>
+  <si>
+    <t>Buyer 20260123161439</t>
+  </si>
+  <si>
+    <t>BUY95-20260123161439</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>ECM96-20260123161439</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260123161439</t>
+  </si>
+  <si>
+    <t>DMM97-20260123161439</t>
+  </si>
+  <si>
+    <t>Videographer 20260123161439</t>
+  </si>
+  <si>
+    <t>VID98-20260123161439</t>
+  </si>
+  <si>
+    <t>Photographer 20260123161439</t>
+  </si>
+  <si>
+    <t>PHO99-20260123161439</t>
+  </si>
+  <si>
+    <t>Journalist 20260123161439</t>
+  </si>
+  <si>
+    <t>JOU100-20260123161439</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>SE01-20260123162222</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260123162222</t>
+  </si>
+  <si>
+    <t>DA02-20260123162222</t>
+  </si>
+  <si>
+    <t>Product Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>PM03-20260123162222</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>SM04-20260123162222</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>MS05-20260123162222</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>HR06-20260123162222</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260123162222</t>
+  </si>
+  <si>
+    <t>FA07-20260123162222</t>
+  </si>
+  <si>
+    <t>Accountant 20260123162222</t>
+  </si>
+  <si>
+    <t>AC08-20260123162222</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260123162222</t>
+  </si>
+  <si>
+    <t>CS09-20260123162222</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>OM10-20260123162222</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>QA11-20260123162222</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>DO12-20260123162222</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260123162222</t>
+  </si>
+  <si>
+    <t>BA13-20260123162222</t>
+  </si>
+  <si>
+    <t>Project Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>PJM14-20260123162222</t>
+  </si>
+  <si>
+    <t>UX Designer 20260123162222</t>
+  </si>
+  <si>
+    <t>UX15-20260123162222</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260123162222</t>
+  </si>
+  <si>
+    <t>GD16-20260123162222</t>
+  </si>
+  <si>
+    <t>Content Writer 20260123162222</t>
+  </si>
+  <si>
+    <t>CW17-20260123162222</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260123162222</t>
+  </si>
+  <si>
+    <t>NA18-20260123162222</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260123162222</t>
+  </si>
+  <si>
+    <t>DBA19-20260123162222</t>
+  </si>
+  <si>
+    <t>System Administrator 20260123162222</t>
+  </si>
+  <si>
+    <t>SA20-20260123162222</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260123162222</t>
+  </si>
+  <si>
+    <t>CA21-20260123162222</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260123162222</t>
+  </si>
+  <si>
+    <t>LC22-20260123162222</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260123162222</t>
+  </si>
+  <si>
+    <t>CO23-20260123162222</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>SCM24-20260123162222</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260123162222</t>
+  </si>
+  <si>
+    <t>LOG25-20260123162222</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>PS26-20260123162222</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260123162222</t>
+  </si>
+  <si>
+    <t>TC27-20260123162222</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>RS28-20260123162222</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260123162222</t>
+  </si>
+  <si>
+    <t>PA29-20260123162222</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260123162222</t>
+  </si>
+  <si>
+    <t>EA30-20260123162222</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260123162222</t>
+  </si>
+  <si>
+    <t>AA31-20260123162222</t>
+  </si>
+  <si>
+    <t>Receptionist 20260123162222</t>
+  </si>
+  <si>
+    <t>REC32-20260123162222</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260123162222</t>
+  </si>
+  <si>
+    <t>SEX33-20260123162222</t>
+  </si>
+  <si>
+    <t>Account Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>AM34-20260123162222</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>BDM35-20260123162222</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>CSM36-20260123162222</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>TS37-20260123162222</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260123162222</t>
+  </si>
+  <si>
+    <t>HD38-20260123162222</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>MM39-20260123162222</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>BM40-20260123162222</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>SMM41-20260123162222</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>SEO42-20260123162222</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>PR43-20260123162222</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>COM44-20260123162222</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260123162222</t>
+  </si>
+  <si>
+    <t>RES45-20260123162222</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260123162222</t>
+  </si>
+  <si>
+    <t>LAB46-20260123162222</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260123162222</t>
+  </si>
+  <si>
+    <t>CRC47-20260123162222</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260123162222</t>
+  </si>
+  <si>
+    <t>PH48-20260123162222</t>
+  </si>
+  <si>
+    <t>Nurse 20260123162222</t>
+  </si>
+  <si>
+    <t>NUR49-20260123162222</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260123162222</t>
+  </si>
+  <si>
+    <t>MA50-20260123162222</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260123162222</t>
+  </si>
+  <si>
+    <t>PT51-20260123162222</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260123162222</t>
+  </si>
+  <si>
+    <t>OT52-20260123162222</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260123162222</t>
+  </si>
+  <si>
+    <t>RT53-20260123162222</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>CM54-20260123162222</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>CE55-20260123162222</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>ME56-20260123162222</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>EE57-20260123162222</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260123162222</t>
+  </si>
+  <si>
+    <t>MFE58-20260123162222</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260123162222</t>
+  </si>
+  <si>
+    <t>PRS59-20260123162222</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>WM60-20260123162222</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>INV61-20260123162222</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260123162222</t>
+  </si>
+  <si>
+    <t>MT62-20260123162222</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>FM63-20260123162222</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>EHS64-20260123162222</t>
+  </si>
+  <si>
+    <t>Security Officer 20260123162222</t>
+  </si>
+  <si>
+    <t>SO65-20260123162222</t>
+  </si>
+  <si>
+    <t>Teacher 20260123162222</t>
+  </si>
+  <si>
+    <t>TEA66-20260123162222</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>TRS67-20260123162222</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260123162222</t>
+  </si>
+  <si>
+    <t>ID68-20260123162222</t>
+  </si>
+  <si>
+    <t>Librarian 20260123162222</t>
+  </si>
+  <si>
+    <t>LIB69-20260123162222</t>
+  </si>
+  <si>
+    <t>Architect 20260123162222</t>
+  </si>
+  <si>
+    <t>ARC70-20260123162222</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260123162222</t>
+  </si>
+  <si>
+    <t>IDE71-20260123162222</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260123162222</t>
+  </si>
+  <si>
+    <t>REA72-20260123162222</t>
+  </si>
+  <si>
+    <t>Property Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>PRM73-20260123162222</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260123162222</t>
+  </si>
+  <si>
+    <t>FIA74-20260123162222</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260123162222</t>
+  </si>
+  <si>
+    <t>IA75-20260123162222</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260123162222</t>
+  </si>
+  <si>
+    <t>CRA76-20260123162222</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>RM77-20260123162222</t>
+  </si>
+  <si>
+    <t>Auditor 20260123162222</t>
+  </si>
+  <si>
+    <t>AUD78-20260123162222</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260123162222</t>
+  </si>
+  <si>
+    <t>TAX79-20260123162222</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260123162222</t>
+  </si>
+  <si>
+    <t>BUA80-20260123162222</t>
+  </si>
+  <si>
+    <t>Paralegal 20260123162222</t>
+  </si>
+  <si>
+    <t>PAR81-20260123162222</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>CTM82-20260123162222</t>
+  </si>
+  <si>
+    <t>Chef 20260123162222</t>
+  </si>
+  <si>
+    <t>CHF83-20260123162222</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>REM84-20260123162222</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260123162222</t>
+  </si>
+  <si>
+    <t>EVC85-20260123162222</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260123162222</t>
+  </si>
+  <si>
+    <t>TRC86-20260123162222</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>HM87-20260123162222</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260123162222</t>
+  </si>
+  <si>
+    <t>FA88-20260123162222</t>
+  </si>
+  <si>
+    <t>Pilot 20260123162222</t>
+  </si>
+  <si>
+    <t>PIL89-20260123162222</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260123162222</t>
+  </si>
+  <si>
+    <t>TD90-20260123162222</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260123162222</t>
+  </si>
+  <si>
+    <t>DD91-20260123162222</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>RSM92-20260123162222</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260123162222</t>
+  </si>
+  <si>
+    <t>SAL93-20260123162222</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260123162222</t>
+  </si>
+  <si>
+    <t>VM94-20260123162222</t>
+  </si>
+  <si>
+    <t>Buyer 20260123162222</t>
+  </si>
+  <si>
+    <t>BUY95-20260123162222</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>ECM96-20260123162222</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260123162222</t>
+  </si>
+  <si>
+    <t>DMM97-20260123162222</t>
+  </si>
+  <si>
+    <t>Videographer 20260123162222</t>
+  </si>
+  <si>
+    <t>VID98-20260123162222</t>
+  </si>
+  <si>
+    <t>Photographer 20260123162222</t>
+  </si>
+  <si>
+    <t>PHO99-20260123162222</t>
+  </si>
+  <si>
+    <t>Journalist 20260123162222</t>
+  </si>
+  <si>
+    <t>JOU100-20260123162222</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>SE01-20260123164411</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260123164411</t>
+  </si>
+  <si>
+    <t>DA02-20260123164411</t>
+  </si>
+  <si>
+    <t>Product Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>PM03-20260123164411</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>SM04-20260123164411</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>MS05-20260123164411</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>HR06-20260123164411</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260123164411</t>
+  </si>
+  <si>
+    <t>FA07-20260123164411</t>
+  </si>
+  <si>
+    <t>Accountant 20260123164411</t>
+  </si>
+  <si>
+    <t>AC08-20260123164411</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260123164411</t>
+  </si>
+  <si>
+    <t>CS09-20260123164411</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>OM10-20260123164411</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>QA11-20260123164411</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>DO12-20260123164411</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260123164411</t>
+  </si>
+  <si>
+    <t>BA13-20260123164411</t>
+  </si>
+  <si>
+    <t>Project Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>PJM14-20260123164411</t>
+  </si>
+  <si>
+    <t>UX Designer 20260123164411</t>
+  </si>
+  <si>
+    <t>UX15-20260123164411</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260123164411</t>
+  </si>
+  <si>
+    <t>GD16-20260123164411</t>
+  </si>
+  <si>
+    <t>Content Writer 20260123164411</t>
+  </si>
+  <si>
+    <t>CW17-20260123164411</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260123164411</t>
+  </si>
+  <si>
+    <t>NA18-20260123164411</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260123164411</t>
+  </si>
+  <si>
+    <t>DBA19-20260123164411</t>
+  </si>
+  <si>
+    <t>System Administrator 20260123164411</t>
+  </si>
+  <si>
+    <t>SA20-20260123164411</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260123164411</t>
+  </si>
+  <si>
+    <t>CA21-20260123164411</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260123164411</t>
+  </si>
+  <si>
+    <t>LC22-20260123164411</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260123164411</t>
+  </si>
+  <si>
+    <t>CO23-20260123164411</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>SCM24-20260123164411</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260123164411</t>
+  </si>
+  <si>
+    <t>LOG25-20260123164411</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>PS26-20260123164411</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260123164411</t>
+  </si>
+  <si>
+    <t>TC27-20260123164411</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>RS28-20260123164411</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260123164411</t>
+  </si>
+  <si>
+    <t>PA29-20260123164411</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260123164411</t>
+  </si>
+  <si>
+    <t>EA30-20260123164411</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260123164411</t>
+  </si>
+  <si>
+    <t>AA31-20260123164411</t>
+  </si>
+  <si>
+    <t>Receptionist 20260123164411</t>
+  </si>
+  <si>
+    <t>REC32-20260123164411</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260123164411</t>
+  </si>
+  <si>
+    <t>SEX33-20260123164411</t>
+  </si>
+  <si>
+    <t>Account Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>AM34-20260123164411</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>BDM35-20260123164411</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>CSM36-20260123164411</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>TS37-20260123164411</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260123164411</t>
+  </si>
+  <si>
+    <t>HD38-20260123164411</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>MM39-20260123164411</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>BM40-20260123164411</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>SMM41-20260123164411</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>SEO42-20260123164411</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>PR43-20260123164411</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>COM44-20260123164411</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260123164411</t>
+  </si>
+  <si>
+    <t>RES45-20260123164411</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260123164411</t>
+  </si>
+  <si>
+    <t>LAB46-20260123164411</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260123164411</t>
+  </si>
+  <si>
+    <t>CRC47-20260123164411</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260123164411</t>
+  </si>
+  <si>
+    <t>PH48-20260123164411</t>
+  </si>
+  <si>
+    <t>Nurse 20260123164411</t>
+  </si>
+  <si>
+    <t>NUR49-20260123164411</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260123164411</t>
+  </si>
+  <si>
+    <t>MA50-20260123164411</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260123164411</t>
+  </si>
+  <si>
+    <t>PT51-20260123164411</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260123164411</t>
+  </si>
+  <si>
+    <t>OT52-20260123164411</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260123164411</t>
+  </si>
+  <si>
+    <t>RT53-20260123164411</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>CM54-20260123164411</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>CE55-20260123164411</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>ME56-20260123164411</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>EE57-20260123164411</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260123164411</t>
+  </si>
+  <si>
+    <t>MFE58-20260123164411</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260123164411</t>
+  </si>
+  <si>
+    <t>PRS59-20260123164411</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>WM60-20260123164411</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>INV61-20260123164411</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260123164411</t>
+  </si>
+  <si>
+    <t>MT62-20260123164411</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>FM63-20260123164411</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>EHS64-20260123164411</t>
+  </si>
+  <si>
+    <t>Security Officer 20260123164411</t>
+  </si>
+  <si>
+    <t>SO65-20260123164411</t>
+  </si>
+  <si>
+    <t>Teacher 20260123164411</t>
+  </si>
+  <si>
+    <t>TEA66-20260123164411</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>TRS67-20260123164411</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260123164411</t>
+  </si>
+  <si>
+    <t>ID68-20260123164411</t>
+  </si>
+  <si>
+    <t>Librarian 20260123164411</t>
+  </si>
+  <si>
+    <t>LIB69-20260123164411</t>
+  </si>
+  <si>
+    <t>Architect 20260123164411</t>
+  </si>
+  <si>
+    <t>ARC70-20260123164411</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260123164411</t>
+  </si>
+  <si>
+    <t>IDE71-20260123164411</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260123164411</t>
+  </si>
+  <si>
+    <t>REA72-20260123164411</t>
+  </si>
+  <si>
+    <t>Property Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>PRM73-20260123164411</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260123164411</t>
+  </si>
+  <si>
+    <t>FIA74-20260123164411</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260123164411</t>
+  </si>
+  <si>
+    <t>IA75-20260123164411</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260123164411</t>
+  </si>
+  <si>
+    <t>CRA76-20260123164411</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>RM77-20260123164411</t>
+  </si>
+  <si>
+    <t>Auditor 20260123164411</t>
+  </si>
+  <si>
+    <t>AUD78-20260123164411</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260123164411</t>
+  </si>
+  <si>
+    <t>TAX79-20260123164411</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260123164411</t>
+  </si>
+  <si>
+    <t>BUA80-20260123164411</t>
+  </si>
+  <si>
+    <t>Paralegal 20260123164411</t>
+  </si>
+  <si>
+    <t>PAR81-20260123164411</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>CTM82-20260123164411</t>
+  </si>
+  <si>
+    <t>Chef 20260123164411</t>
+  </si>
+  <si>
+    <t>CHF83-20260123164411</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>REM84-20260123164411</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260123164411</t>
+  </si>
+  <si>
+    <t>EVC85-20260123164411</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260123164411</t>
+  </si>
+  <si>
+    <t>TRC86-20260123164411</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>HM87-20260123164411</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260123164411</t>
+  </si>
+  <si>
+    <t>FA88-20260123164411</t>
+  </si>
+  <si>
+    <t>Pilot 20260123164411</t>
+  </si>
+  <si>
+    <t>PIL89-20260123164411</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260123164411</t>
+  </si>
+  <si>
+    <t>TD90-20260123164411</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260123164411</t>
+  </si>
+  <si>
+    <t>DD91-20260123164411</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>RSM92-20260123164411</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260123164411</t>
+  </si>
+  <si>
+    <t>SAL93-20260123164411</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260123164411</t>
+  </si>
+  <si>
+    <t>VM94-20260123164411</t>
+  </si>
+  <si>
+    <t>Buyer 20260123164411</t>
+  </si>
+  <si>
+    <t>BUY95-20260123164411</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>ECM96-20260123164411</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260123164411</t>
+  </si>
+  <si>
+    <t>DMM97-20260123164411</t>
+  </si>
+  <si>
+    <t>Videographer 20260123164411</t>
+  </si>
+  <si>
+    <t>VID98-20260123164411</t>
+  </si>
+  <si>
+    <t>Photographer 20260123164411</t>
+  </si>
+  <si>
+    <t>PHO99-20260123164411</t>
+  </si>
+  <si>
+    <t>Journalist 20260123164411</t>
+  </si>
+  <si>
+    <t>JOU100-20260123164411</t>
+  </si>
+  <si>
+    <t>Software Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>SE01-20260123172535</t>
+  </si>
+  <si>
+    <t>Data Analyst 20260123172535</t>
+  </si>
+  <si>
+    <t>DA02-20260123172535</t>
+  </si>
+  <si>
+    <t>Product Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>PM03-20260123172535</t>
+  </si>
+  <si>
+    <t>Sales Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>SM04-20260123172535</t>
+  </si>
+  <si>
+    <t>Marketing Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>MS05-20260123172535</t>
+  </si>
+  <si>
+    <t>Human Resources Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>HR06-20260123172535</t>
+  </si>
+  <si>
+    <t>Financial Analyst 20260123172535</t>
+  </si>
+  <si>
+    <t>FA07-20260123172535</t>
+  </si>
+  <si>
+    <t>Accountant 20260123172535</t>
+  </si>
+  <si>
+    <t>AC08-20260123172535</t>
+  </si>
+  <si>
+    <t>Customer Service Representative 20260123172535</t>
+  </si>
+  <si>
+    <t>CS09-20260123172535</t>
+  </si>
+  <si>
+    <t>Operations Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>OM10-20260123172535</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>QA11-20260123172535</t>
+  </si>
+  <si>
+    <t>DevOps Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>DO12-20260123172535</t>
+  </si>
+  <si>
+    <t>Business Analyst 20260123172535</t>
+  </si>
+  <si>
+    <t>BA13-20260123172535</t>
+  </si>
+  <si>
+    <t>Project Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>PJM14-20260123172535</t>
+  </si>
+  <si>
+    <t>UX Designer 20260123172535</t>
+  </si>
+  <si>
+    <t>UX15-20260123172535</t>
+  </si>
+  <si>
+    <t>Graphic Designer 20260123172535</t>
+  </si>
+  <si>
+    <t>GD16-20260123172535</t>
+  </si>
+  <si>
+    <t>Content Writer 20260123172535</t>
+  </si>
+  <si>
+    <t>CW17-20260123172535</t>
+  </si>
+  <si>
+    <t>Network Administrator 20260123172535</t>
+  </si>
+  <si>
+    <t>NA18-20260123172535</t>
+  </si>
+  <si>
+    <t>Database Administrator 20260123172535</t>
+  </si>
+  <si>
+    <t>DBA19-20260123172535</t>
+  </si>
+  <si>
+    <t>System Administrator 20260123172535</t>
+  </si>
+  <si>
+    <t>SA20-20260123172535</t>
+  </si>
+  <si>
+    <t>Cybersecurity Analyst 20260123172535</t>
+  </si>
+  <si>
+    <t>CA21-20260123172535</t>
+  </si>
+  <si>
+    <t>Legal Counsel 20260123172535</t>
+  </si>
+  <si>
+    <t>LC22-20260123172535</t>
+  </si>
+  <si>
+    <t>Compliance Officer 20260123172535</t>
+  </si>
+  <si>
+    <t>CO23-20260123172535</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>SCM24-20260123172535</t>
+  </si>
+  <si>
+    <t>Logistics Coordinator 20260123172535</t>
+  </si>
+  <si>
+    <t>LOG25-20260123172535</t>
+  </si>
+  <si>
+    <t>Procurement Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>PS26-20260123172535</t>
+  </si>
+  <si>
+    <t>Training Coordinator 20260123172535</t>
+  </si>
+  <si>
+    <t>TC27-20260123172535</t>
+  </si>
+  <si>
+    <t>Recruitment Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>RS28-20260123172535</t>
+  </si>
+  <si>
+    <t>Payroll Administrator 20260123172535</t>
+  </si>
+  <si>
+    <t>PA29-20260123172535</t>
+  </si>
+  <si>
+    <t>Executive Assistant 20260123172535</t>
+  </si>
+  <si>
+    <t>EA30-20260123172535</t>
+  </si>
+  <si>
+    <t>Administrative Assistant 20260123172535</t>
+  </si>
+  <si>
+    <t>AA31-20260123172535</t>
+  </si>
+  <si>
+    <t>Receptionist 20260123172535</t>
+  </si>
+  <si>
+    <t>REC32-20260123172535</t>
+  </si>
+  <si>
+    <t>Sales Executive 20260123172535</t>
+  </si>
+  <si>
+    <t>SEX33-20260123172535</t>
+  </si>
+  <si>
+    <t>Account Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>AM34-20260123172535</t>
+  </si>
+  <si>
+    <t>Business Development Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>BDM35-20260123172535</t>
+  </si>
+  <si>
+    <t>Customer Success Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>CSM36-20260123172535</t>
+  </si>
+  <si>
+    <t>Technical Support Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>TS37-20260123172535</t>
+  </si>
+  <si>
+    <t>Help Desk Technician 20260123172535</t>
+  </si>
+  <si>
+    <t>HD38-20260123172535</t>
+  </si>
+  <si>
+    <t>Marketing Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>MM39-20260123172535</t>
+  </si>
+  <si>
+    <t>Brand Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>BM40-20260123172535</t>
+  </si>
+  <si>
+    <t>Social Media Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>SMM41-20260123172535</t>
+  </si>
+  <si>
+    <t>SEO Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>SEO42-20260123172535</t>
+  </si>
+  <si>
+    <t>Public Relations Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>PR43-20260123172535</t>
+  </si>
+  <si>
+    <t>Communications Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>COM44-20260123172535</t>
+  </si>
+  <si>
+    <t>Research Scientist 20260123172535</t>
+  </si>
+  <si>
+    <t>RES45-20260123172535</t>
+  </si>
+  <si>
+    <t>Laboratory Technician 20260123172535</t>
+  </si>
+  <si>
+    <t>LAB46-20260123172535</t>
+  </si>
+  <si>
+    <t>Clinical Research Coordinator 20260123172535</t>
+  </si>
+  <si>
+    <t>CRC47-20260123172535</t>
+  </si>
+  <si>
+    <t>Pharmacist 20260123172535</t>
+  </si>
+  <si>
+    <t>PH48-20260123172535</t>
+  </si>
+  <si>
+    <t>Nurse 20260123172535</t>
+  </si>
+  <si>
+    <t>NUR49-20260123172535</t>
+  </si>
+  <si>
+    <t>Medical Assistant 20260123172535</t>
+  </si>
+  <si>
+    <t>MA50-20260123172535</t>
+  </si>
+  <si>
+    <t>Physical Therapist 20260123172535</t>
+  </si>
+  <si>
+    <t>PT51-20260123172535</t>
+  </si>
+  <si>
+    <t>Occupational Therapist 20260123172535</t>
+  </si>
+  <si>
+    <t>OT52-20260123172535</t>
+  </si>
+  <si>
+    <t>Radiologic Technologist 20260123172535</t>
+  </si>
+  <si>
+    <t>RT53-20260123172535</t>
+  </si>
+  <si>
+    <t>Construction Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>CM54-20260123172535</t>
+  </si>
+  <si>
+    <t>Civil Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>CE55-20260123172535</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>ME56-20260123172535</t>
+  </si>
+  <si>
+    <t>Electrical Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>EE57-20260123172535</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer 20260123172535</t>
+  </si>
+  <si>
+    <t>MFE58-20260123172535</t>
+  </si>
+  <si>
+    <t>Production Supervisor 20260123172535</t>
+  </si>
+  <si>
+    <t>PRS59-20260123172535</t>
+  </si>
+  <si>
+    <t>Warehouse Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>WM60-20260123172535</t>
+  </si>
+  <si>
+    <t>Inventory Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>INV61-20260123172535</t>
+  </si>
+  <si>
+    <t>Maintenance Technician 20260123172535</t>
+  </si>
+  <si>
+    <t>MT62-20260123172535</t>
+  </si>
+  <si>
+    <t>Facilities Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>FM63-20260123172535</t>
+  </si>
+  <si>
+    <t>Environmental Health and Safety Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>EHS64-20260123172535</t>
+  </si>
+  <si>
+    <t>Security Officer 20260123172535</t>
+  </si>
+  <si>
+    <t>SO65-20260123172535</t>
+  </si>
+  <si>
+    <t>Teacher 20260123172535</t>
+  </si>
+  <si>
+    <t>TEA66-20260123172535</t>
+  </si>
+  <si>
+    <t>Training Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>TRS67-20260123172535</t>
+  </si>
+  <si>
+    <t>Instructional Designer 20260123172535</t>
+  </si>
+  <si>
+    <t>ID68-20260123172535</t>
+  </si>
+  <si>
+    <t>Librarian 20260123172535</t>
+  </si>
+  <si>
+    <t>LIB69-20260123172535</t>
+  </si>
+  <si>
+    <t>Architect 20260123172535</t>
+  </si>
+  <si>
+    <t>ARC70-20260123172535</t>
+  </si>
+  <si>
+    <t>Interior Designer 20260123172535</t>
+  </si>
+  <si>
+    <t>IDE71-20260123172535</t>
+  </si>
+  <si>
+    <t>Real Estate Agent 20260123172535</t>
+  </si>
+  <si>
+    <t>REA72-20260123172535</t>
+  </si>
+  <si>
+    <t>Property Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>PRM73-20260123172535</t>
+  </si>
+  <si>
+    <t>Financial Advisor 20260123172535</t>
+  </si>
+  <si>
+    <t>FIA74-20260123172535</t>
+  </si>
+  <si>
+    <t>Investment Analyst 20260123172535</t>
+  </si>
+  <si>
+    <t>IA75-20260123172535</t>
+  </si>
+  <si>
+    <t>Credit Analyst 20260123172535</t>
+  </si>
+  <si>
+    <t>CRA76-20260123172535</t>
+  </si>
+  <si>
+    <t>Risk Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>RM77-20260123172535</t>
+  </si>
+  <si>
+    <t>Auditor 20260123172535</t>
+  </si>
+  <si>
+    <t>AUD78-20260123172535</t>
+  </si>
+  <si>
+    <t>Tax Specialist 20260123172535</t>
+  </si>
+  <si>
+    <t>TAX79-20260123172535</t>
+  </si>
+  <si>
+    <t>Budget Analyst 20260123172535</t>
+  </si>
+  <si>
+    <t>BUA80-20260123172535</t>
+  </si>
+  <si>
+    <t>Paralegal 20260123172535</t>
+  </si>
+  <si>
+    <t>PAR81-20260123172535</t>
+  </si>
+  <si>
+    <t>Contract Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>CTM82-20260123172535</t>
+  </si>
+  <si>
+    <t>Chef 20260123172535</t>
+  </si>
+  <si>
+    <t>CHF83-20260123172535</t>
+  </si>
+  <si>
+    <t>Restaurant Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>REM84-20260123172535</t>
+  </si>
+  <si>
+    <t>Event Coordinator 20260123172535</t>
+  </si>
+  <si>
+    <t>EVC85-20260123172535</t>
+  </si>
+  <si>
+    <t>Travel Coordinator 20260123172535</t>
+  </si>
+  <si>
+    <t>TRC86-20260123172535</t>
+  </si>
+  <si>
+    <t>Hotel Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>HM87-20260123172535</t>
+  </si>
+  <si>
+    <t>Flight Attendant 20260123172535</t>
+  </si>
+  <si>
+    <t>FA88-20260123172535</t>
+  </si>
+  <si>
+    <t>Pilot 20260123172535</t>
+  </si>
+  <si>
+    <t>PIL89-20260123172535</t>
+  </si>
+  <si>
+    <t>Truck Driver 20260123172535</t>
+  </si>
+  <si>
+    <t>TD90-20260123172535</t>
+  </si>
+  <si>
+    <t>Delivery Driver 20260123172535</t>
+  </si>
+  <si>
+    <t>DD91-20260123172535</t>
+  </si>
+  <si>
+    <t>Retail Store Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>RSM92-20260123172535</t>
+  </si>
+  <si>
+    <t>Sales Associate 20260123172535</t>
+  </si>
+  <si>
+    <t>SAL93-20260123172535</t>
+  </si>
+  <si>
+    <t>Visual Merchandiser 20260123172535</t>
+  </si>
+  <si>
+    <t>VM94-20260123172535</t>
+  </si>
+  <si>
+    <t>Buyer 20260123172535</t>
+  </si>
+  <si>
+    <t>BUY95-20260123172535</t>
+  </si>
+  <si>
+    <t>E-commerce Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>ECM96-20260123172535</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager 20260123172535</t>
+  </si>
+  <si>
+    <t>DMM97-20260123172535</t>
+  </si>
+  <si>
+    <t>Videographer 20260123172535</t>
+  </si>
+  <si>
+    <t>VID98-20260123172535</t>
+  </si>
+  <si>
+    <t>Photographer 20260123172535</t>
+  </si>
+  <si>
+    <t>PHO99-20260123172535</t>
+  </si>
+  <si>
+    <t>Journalist 20260123172535</t>
+  </si>
+  <si>
+    <t>JOU100-20260123172535</t>
   </si>
   <si>
     <t>JGL01</t>
   </si>
   <si>
     <t>FALSE</t>
-  </si>
-  <si>
-    <t>Network Engineer11</t>
-  </si>
-  <si>
-    <t>JC0011</t>
-  </si>
-  <si>
-    <t>Associate User05</t>
-  </si>
-  <si>
-    <t>JC0020</t>
   </si>
 </sst>
 </file>
@@ -12175,7 +14557,7 @@
   <cols>
     <col min="16" max="16" customWidth="true" style="1" width="38.2890625" bestFit="true"/>
     <col min="1" max="1" customWidth="true" style="1" width="199.66015625" bestFit="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.37109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.55078125"/>
     <col min="3" max="3" customWidth="true" style="1" width="32.84375" bestFit="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="33.09765625" bestFit="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="25.77734375" bestFit="true"/>
@@ -12661,10 +15043,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>3740</v>
+        <v>4488</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>3741</v>
+        <v>4489</v>
       </c>
       <c r="C7" t="s" s="1">
         <v>33</v>
@@ -12673,220 +15055,220 @@
         <v>2402</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>3742</v>
+        <v>4540</v>
       </c>
       <c r="K7" t="s" s="1">
-        <v>134</v>
+        <v>306</v>
       </c>
       <c r="M7" t="s" s="1">
-        <v>3743</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>3252</v>
+        <v>4144</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>3253</v>
+        <v>4145</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>134</v>
+        <v>2380</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>2930</v>
+        <v>4540</v>
       </c>
       <c r="K8" t="s" s="1">
-        <v>134</v>
+        <v>2380</v>
       </c>
       <c r="M8" t="s" s="1">
-        <v>3743</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>3728</v>
+        <v>3600</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>3729</v>
+        <v>3601</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>66</v>
+        <v>2479</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>2465</v>
+        <v>2402</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>3742</v>
+        <v>2932</v>
       </c>
       <c r="K9" t="s" s="1">
-        <v>134</v>
+        <v>2479</v>
       </c>
       <c r="M9" t="s" s="1">
-        <v>3743</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>3146</v>
+        <v>3544</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>3147</v>
+        <v>3545</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>220</v>
+        <v>2380</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>2384</v>
+        <v>241</v>
       </c>
       <c r="E10" t="s" s="1">
-        <v>2931</v>
+        <v>4540</v>
       </c>
       <c r="K10" t="s" s="1">
-        <v>134</v>
+        <v>2380</v>
       </c>
       <c r="M10" t="s" s="1">
-        <v>3743</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>3234</v>
+        <v>3706</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>3235</v>
+        <v>3707</v>
       </c>
       <c r="C11" t="s" s="1">
         <v>33</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>2402</v>
+        <v>2666</v>
       </c>
       <c r="E11" t="s" s="1">
-        <v>3742</v>
+        <v>2935</v>
       </c>
       <c r="K11" t="s" s="1">
-        <v>134</v>
+        <v>2753</v>
       </c>
       <c r="M11" t="s" s="1">
-        <v>3743</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>3744</v>
+        <v>3944</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>3745</v>
+        <v>3945</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>33</v>
+        <v>2380</v>
       </c>
       <c r="D12" t="s" s="1">
-        <v>2402</v>
+        <v>241</v>
       </c>
       <c r="E12" t="s" s="1">
-        <v>3742</v>
+        <v>4540</v>
       </c>
       <c r="K12" t="s" s="1">
-        <v>134</v>
+        <v>2380</v>
       </c>
       <c r="M12" t="s" s="1">
-        <v>3743</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
-        <v>3644</v>
+        <v>3200</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>3645</v>
+        <v>3201</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>33</v>
+        <v>2479</v>
       </c>
       <c r="D13" t="s" s="1">
-        <v>2551</v>
+        <v>2402</v>
       </c>
       <c r="E13" t="s" s="1">
-        <v>2928</v>
+        <v>2932</v>
       </c>
       <c r="K13" t="s" s="1">
-        <v>2551</v>
+        <v>2479</v>
       </c>
       <c r="M13" t="s" s="1">
-        <v>3743</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
-        <v>3170</v>
+        <v>3314</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>3171</v>
+        <v>3315</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>2421</v>
+        <v>2682</v>
       </c>
       <c r="D14" t="s" s="1">
-        <v>2426</v>
+        <v>2402</v>
       </c>
       <c r="E14" t="s" s="1">
         <v>2929</v>
       </c>
       <c r="K14" t="s" s="1">
-        <v>134</v>
+        <v>2686</v>
       </c>
       <c r="M14" t="s" s="1">
-        <v>3743</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
-        <v>3746</v>
+        <v>3514</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>3747</v>
+        <v>3515</v>
       </c>
       <c r="C15" t="s" s="1">
-        <v>33</v>
+        <v>2682</v>
       </c>
       <c r="D15" t="s" s="1">
         <v>2402</v>
       </c>
       <c r="E15" t="s" s="1">
-        <v>3742</v>
+        <v>2929</v>
       </c>
       <c r="K15" t="s" s="1">
-        <v>134</v>
+        <v>2686</v>
       </c>
       <c r="M15" t="s" s="1">
-        <v>3743</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
-        <v>3622</v>
+        <v>3744</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>3623</v>
+        <v>3745</v>
       </c>
       <c r="C16" t="s" s="1">
-        <v>187</v>
+        <v>2380</v>
       </c>
       <c r="D16" t="s" s="1">
-        <v>2402</v>
+        <v>241</v>
       </c>
       <c r="E16" t="s" s="1">
-        <v>2929</v>
+        <v>4540</v>
       </c>
       <c r="K16" t="s" s="1">
-        <v>187</v>
+        <v>2380</v>
       </c>
       <c r="M16" t="s" s="1">
-        <v>3743</v>
+        <v>4541</v>
       </c>
     </row>
   </sheetData>
